--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_8_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_8_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46181.4907895037</v>
+        <v>9190116.667111233</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>46181.4907895037</v>
+        <v>9190116.667111233</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.773511938166166</v>
+        <v>286.41071628997</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.773511938166166</v>
+        <v>286.41071628997</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>958829469.8266521</v>
+        <v>39170901.16998447</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7861.59350959729</v>
+        <v>860657.3140601626</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15251.06991055683</v>
+        <v>1647744.096708343</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>22640.54631151636</v>
+        <v>2434830.879356525</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30349.82357157157</v>
+        <v>3232909.927140154</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>38003.9832558692</v>
+        <v>4020020.577348027</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>45658.14294016682</v>
+        <v>4807131.227555898</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>53312.30262446444</v>
+        <v>5594241.877763767</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>61696.88897542872</v>
+        <v>6416590.081102948</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>69401.3355284132</v>
+        <v>7179431.575755261</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>77227.73763695324</v>
+        <v>7966542.22596313</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>85054.13974549327</v>
+        <v>8753652.876171004</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>92653.18185403332</v>
+        <v>9529795.128803123</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>100307.3415383309</v>
+        <v>10316905.779011</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>107961.5012226285</v>
+        <v>11104016.42921888</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>115615.6609069261</v>
+        <v>11891127.07942675</v>
       </c>
     </row>
   </sheetData>
